--- a/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01236A7F-D98F-CE4C-AB2E-83C21C12D3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEF6EDE-729C-C14C-90AA-2FB13D19B764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="4180" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="17980" yWindow="5320" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,7 @@
   <dimension ref="B2:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -691,14 +691,17 @@
         <v>68</v>
       </c>
       <c r="J6">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="K6">
+        <v>84</v>
       </c>
       <c r="M6">
         <v>100</v>
       </c>
       <c r="O6" s="3">
         <f>AVERAGE(C6:K6)</f>
-        <v>74.875</v>
+        <v>76.222222222222229</v>
       </c>
       <c r="P6" s="3">
         <f>STDEV(C6:H6)</f>
@@ -744,7 +747,7 @@
       </c>
       <c r="O7" s="3">
         <f>O6+H7</f>
-        <v>84.875</v>
+        <v>86.222222222222229</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>9</v>
@@ -825,11 +828,11 @@
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
-        <v>14.24</v>
+        <v>14.72</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>1.6</v>
+        <v>15.040000000000001</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
@@ -922,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:H13" si="3">(D10+D11)*D12</f>
+        <f t="shared" ref="D13:K13" si="3">(D10+D11)*D12</f>
         <v>0</v>
       </c>
       <c r="E13">
@@ -938,6 +941,18 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1028,7 +1043,7 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C17">
-        <f t="shared" ref="C17:H17" si="5">(C14+C15)*C16</f>
+        <f t="shared" ref="C17:K17" si="5">(C14+C15)*C16</f>
         <v>0</v>
       </c>
       <c r="D17">
@@ -1048,6 +1063,18 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1135,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:H22" si="7">(D18+D19+D20)*D21</f>
+        <f t="shared" ref="D22:K22" si="7">(D18+D19+D20)*D21</f>
         <v>0</v>
       </c>
       <c r="E22">
@@ -1151,6 +1178,18 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1197,6 +1236,15 @@
       <c r="H25">
         <v>0.16</v>
       </c>
+      <c r="I25">
+        <v>0.16</v>
+      </c>
+      <c r="J25">
+        <v>0.16</v>
+      </c>
+      <c r="K25">
+        <v>0.16</v>
+      </c>
       <c r="M25">
         <v>0.16</v>
       </c>
@@ -1229,6 +1277,18 @@
         <f>H24*H25</f>
         <v>0</v>
       </c>
+      <c r="I26">
+        <f t="shared" ref="I26:K26" si="9">I24*I25</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="M26">
         <f>(M23+M24)*M25</f>
         <v>16</v>
@@ -1277,8 +1337,17 @@
       <c r="H30">
         <v>0.05</v>
       </c>
+      <c r="I30">
+        <v>0.05</v>
+      </c>
+      <c r="J30">
+        <v>0.05</v>
+      </c>
+      <c r="K30">
+        <v>0.05</v>
+      </c>
       <c r="M30">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
@@ -1319,8 +1388,17 @@
       <c r="H32">
         <v>0.05</v>
       </c>
+      <c r="I32">
+        <v>0.05</v>
+      </c>
+      <c r="J32">
+        <v>0.05</v>
+      </c>
+      <c r="K32">
+        <v>0.05</v>
+      </c>
       <c r="M32">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
@@ -1353,8 +1431,17 @@
       <c r="H34">
         <v>0.1</v>
       </c>
+      <c r="I34">
+        <v>0.1</v>
+      </c>
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="K34">
+        <v>0.1</v>
+      </c>
       <c r="M34">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
@@ -1363,17 +1450,6 @@
       </c>
       <c r="M36">
         <f>M29*M30+M31*M32+M33*M34</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="M38">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="M39">
-        <f>M36*M38</f>
         <v>20</v>
       </c>
     </row>
@@ -1391,24 +1467,36 @@
         <v>15.52</v>
       </c>
       <c r="D42">
-        <f t="shared" ref="D42:H42" si="9">SUM(D9,D22,D13,D17,D26,D39)</f>
+        <f t="shared" ref="D42:K42" si="10">SUM(D9,D22,D13,D17,D26,D39)</f>
         <v>13.92</v>
       </c>
       <c r="E42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.24</v>
       </c>
       <c r="F42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.6</v>
       </c>
       <c r="G42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15.200000000000001</v>
       </c>
       <c r="H42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.44</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="10"/>
+        <v>12.48</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="10"/>
+        <v>14.72</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="10"/>
+        <v>15.040000000000001</v>
       </c>
       <c r="M42">
         <f>SUM(M9)</f>
@@ -1440,7 +1528,7 @@
         <v>0.97</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" ref="D45:H45" si="10">D42/$M$42</f>
+        <f t="shared" ref="D45:K45" si="11">D42/$M$42</f>
         <v>0.87</v>
       </c>
       <c r="E45" s="1">
@@ -1448,24 +1536,33 @@
         <v>0.64</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" ref="F45:G45" si="11">F42/$M$42</f>
+        <f t="shared" ref="F45:G45" si="12">F42/$M$42</f>
         <v>0.85</v>
       </c>
       <c r="G45" s="1">
+        <f t="shared" si="12"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="H45" s="1">
         <f t="shared" si="11"/>
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" si="10"/>
         <v>0.84</v>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="I45" s="1">
+        <f t="shared" si="11"/>
+        <v>0.78</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="11"/>
+        <v>0.92</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="11"/>
+        <v>0.94000000000000006</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="O45" s="3">
-        <f>100*AVERAGE(C45:H45)</f>
-        <v>85.333333333333343</v>
+        <f>100*AVERAGE(C45:K45)</f>
+        <v>86.222222222222229</v>
       </c>
       <c r="P45" s="3">
         <f>100*STDEV(C45:H45)</f>

--- a/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEF6EDE-729C-C14C-90AA-2FB13D19B764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C419638-55C5-A144-AB70-674883DF0AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17980" yWindow="5320" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>Weight</t>
   </si>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
   <dimension ref="B2:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,16 +849,43 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
+      <c r="C10">
+        <v>96</v>
+      </c>
+      <c r="D10">
+        <v>87</v>
+      </c>
+      <c r="E10">
+        <v>66</v>
+      </c>
+      <c r="F10">
+        <v>73</v>
+      </c>
+      <c r="G10">
+        <v>81</v>
+      </c>
+      <c r="H10">
+        <v>96</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+      <c r="J10">
+        <v>96</v>
+      </c>
+      <c r="K10">
+        <v>93</v>
+      </c>
       <c r="M10">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="e">
-        <f>AVERAGE(C10:H10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" s="3" t="e">
-        <f>STDEV(C10:M10)</f>
-        <v>#DIV/0!</v>
+      <c r="O10" s="3">
+        <f>AVERAGE(C10:K10)</f>
+        <v>86.444444444444443</v>
+      </c>
+      <c r="P10" s="3">
+        <f>STDEV(C10:H10)</f>
+        <v>12.221565638929702</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>15</v>
@@ -871,6 +898,33 @@
       <c r="B11" t="s">
         <v>37</v>
       </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
       <c r="R11" s="2" t="s">
         <v>17</v>
       </c>
@@ -922,39 +976,39 @@
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C13">
         <f>(C10+C11)*C12</f>
-        <v>0</v>
+        <v>16.16</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:K13" si="3">(D10+D11)*D12</f>
-        <v>0</v>
+        <v>14.72</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11.36</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13.76</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16.16</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16.16</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15.68</v>
       </c>
       <c r="M13">
         <f t="shared" ref="M13" si="4">(M10+M11)*M12</f>
@@ -1446,9 +1500,36 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36">
+        <f>M29*M30</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37">
+        <f>M31*M32</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38">
+        <f>M33*M34</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>62</v>
       </c>
-      <c r="M36">
+      <c r="M39">
         <f>M29*M30+M31*M32+M33*M34</f>
         <v>20</v>
       </c>
@@ -1463,44 +1544,44 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <f>SUM(C9,C22,C13,C17,C26,C36)</f>
-        <v>15.52</v>
+        <f>SUM(C9,C22,C13,C17,C26,C36,C37,C38)</f>
+        <v>31.68</v>
       </c>
       <c r="D42">
-        <f t="shared" ref="D42:K42" si="10">SUM(D9,D22,D13,D17,D26,D39)</f>
-        <v>13.92</v>
+        <f>SUM(D9,D22,D13,D17,D26,D36,D37,D38)</f>
+        <v>28.64</v>
       </c>
       <c r="E42">
-        <f t="shared" si="10"/>
-        <v>10.24</v>
+        <f t="shared" ref="E42:K42" si="10">SUM(E9,E22,E13,E17,E26,E36,E37,E38)</f>
+        <v>21.6</v>
       </c>
       <c r="F42">
         <f t="shared" si="10"/>
-        <v>13.6</v>
+        <v>26.08</v>
       </c>
       <c r="G42">
         <f t="shared" si="10"/>
-        <v>15.200000000000001</v>
+        <v>28.96</v>
       </c>
       <c r="H42">
         <f t="shared" si="10"/>
-        <v>13.44</v>
+        <v>29.6</v>
       </c>
       <c r="I42">
         <f t="shared" si="10"/>
-        <v>12.48</v>
+        <v>27.68</v>
       </c>
       <c r="J42">
         <f t="shared" si="10"/>
-        <v>14.72</v>
+        <v>30.880000000000003</v>
       </c>
       <c r="K42">
         <f t="shared" si="10"/>
-        <v>15.040000000000001</v>
+        <v>30.72</v>
       </c>
       <c r="M42">
-        <f>SUM(M9)</f>
-        <v>16</v>
+        <f>SUM(M9,M13)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
@@ -1525,48 +1606,48 @@
       </c>
       <c r="C45" s="1">
         <f>C42/$M$42</f>
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" ref="D45:K45" si="11">D42/$M$42</f>
-        <v>0.87</v>
+        <f>D42/$M$42</f>
+        <v>0.89500000000000002</v>
       </c>
       <c r="E45" s="1">
         <f>E42/$M$42</f>
-        <v>0.64</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" ref="F45:G45" si="12">F42/$M$42</f>
-        <v>0.85</v>
+        <f t="shared" ref="F45:G45" si="11">F42/$M$42</f>
+        <v>0.81499999999999995</v>
       </c>
       <c r="G45" s="1">
+        <f t="shared" si="11"/>
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" ref="D45:K45" si="12">H42/$M$42</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I45" s="1">
         <f t="shared" si="12"/>
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" si="11"/>
-        <v>0.84</v>
-      </c>
-      <c r="I45" s="1">
-        <f t="shared" si="11"/>
-        <v>0.78</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="11"/>
-        <v>0.92</v>
+        <f t="shared" si="12"/>
+        <v>0.96500000000000008</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="11"/>
-        <v>0.94000000000000006</v>
+        <f t="shared" si="12"/>
+        <v>0.96</v>
       </c>
       <c r="L45" s="1"/>
       <c r="O45" s="3">
         <f>100*AVERAGE(C45:K45)</f>
-        <v>86.222222222222229</v>
+        <v>88.833333333333329</v>
       </c>
       <c r="P45" s="3">
         <f>100*STDEV(C45:H45)</f>
-        <v>11.74166370948622</v>
+        <v>10.98066482504583</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C419638-55C5-A144-AB70-674883DF0AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A581411-D424-4C45-96BB-CD943152D648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17980" yWindow="5320" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="14400" yWindow="5020" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
   <dimension ref="B2:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,6 +925,10 @@
       <c r="K11">
         <v>5</v>
       </c>
+      <c r="O11" s="3">
+        <f>O10+H11</f>
+        <v>91.444444444444443</v>
+      </c>
       <c r="R11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1256,16 +1260,43 @@
       <c r="B24" t="s">
         <v>44</v>
       </c>
+      <c r="C24">
+        <v>94</v>
+      </c>
+      <c r="D24">
+        <v>96</v>
+      </c>
+      <c r="E24">
+        <v>88</v>
+      </c>
+      <c r="F24">
+        <v>96</v>
+      </c>
+      <c r="G24">
+        <v>90</v>
+      </c>
+      <c r="H24">
+        <v>90</v>
+      </c>
+      <c r="I24">
+        <v>98</v>
+      </c>
+      <c r="J24">
+        <v>90</v>
+      </c>
+      <c r="K24">
+        <v>92</v>
+      </c>
       <c r="M24">
         <v>100</v>
       </c>
-      <c r="O24" s="3" t="e">
-        <f>AVERAGE(C24:H24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" s="3" t="e">
-        <f>STDEV(C24:H24)</f>
-        <v>#DIV/0!</v>
+      <c r="O24" s="3">
+        <f>AVERAGE(C24:K24)</f>
+        <v>92.666666666666671</v>
+      </c>
+      <c r="P24" s="3">
+        <f>STDEV(C24:K24)</f>
+        <v>3.4641016151377544</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
@@ -1309,39 +1340,39 @@
       </c>
       <c r="C26">
         <f t="shared" ref="C26:G26" si="8">C24*C25</f>
-        <v>0</v>
+        <v>15.040000000000001</v>
       </c>
       <c r="D26">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15.36</v>
       </c>
       <c r="E26">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14.08</v>
       </c>
       <c r="F26">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15.36</v>
       </c>
       <c r="G26">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H26">
         <f>H24*H25</f>
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I26">
         <f t="shared" ref="I26:K26" si="9">I24*I25</f>
-        <v>0</v>
+        <v>15.68</v>
       </c>
       <c r="J26">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K26">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>14.72</v>
       </c>
       <c r="M26">
         <f>(M23+M24)*M25</f>
@@ -1545,43 +1576,43 @@
       </c>
       <c r="C42">
         <f>SUM(C9,C22,C13,C17,C26,C36,C37,C38)</f>
-        <v>31.68</v>
+        <v>46.72</v>
       </c>
       <c r="D42">
         <f>SUM(D9,D22,D13,D17,D26,D36,D37,D38)</f>
-        <v>28.64</v>
+        <v>44</v>
       </c>
       <c r="E42">
         <f t="shared" ref="E42:K42" si="10">SUM(E9,E22,E13,E17,E26,E36,E37,E38)</f>
-        <v>21.6</v>
+        <v>35.68</v>
       </c>
       <c r="F42">
         <f t="shared" si="10"/>
-        <v>26.08</v>
+        <v>41.44</v>
       </c>
       <c r="G42">
         <f t="shared" si="10"/>
-        <v>28.96</v>
+        <v>43.36</v>
       </c>
       <c r="H42">
         <f t="shared" si="10"/>
-        <v>29.6</v>
+        <v>44</v>
       </c>
       <c r="I42">
         <f t="shared" si="10"/>
-        <v>27.68</v>
+        <v>43.36</v>
       </c>
       <c r="J42">
         <f t="shared" si="10"/>
-        <v>30.880000000000003</v>
+        <v>45.28</v>
       </c>
       <c r="K42">
         <f t="shared" si="10"/>
-        <v>30.72</v>
+        <v>45.44</v>
       </c>
       <c r="M42">
-        <f>SUM(M9,M13)</f>
-        <v>32</v>
+        <f>SUM(M9,M13,M26)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
@@ -1606,48 +1637,48 @@
       </c>
       <c r="C45" s="1">
         <f>C42/$M$42</f>
-        <v>0.99</v>
+        <v>0.97333333333333327</v>
       </c>
       <c r="D45" s="1">
         <f>D42/$M$42</f>
-        <v>0.89500000000000002</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E45" s="1">
         <f>E42/$M$42</f>
-        <v>0.67500000000000004</v>
+        <v>0.74333333333333329</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" ref="F45:G45" si="11">F42/$M$42</f>
-        <v>0.81499999999999995</v>
+        <v>0.86333333333333329</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="11"/>
-        <v>0.90500000000000003</v>
+        <v>0.90333333333333332</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" ref="D45:K45" si="12">H42/$M$42</f>
-        <v>0.92500000000000004</v>
+        <f t="shared" ref="H45:K45" si="12">H42/$M$42</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="12"/>
-        <v>0.86499999999999999</v>
+        <v>0.90333333333333332</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="12"/>
-        <v>0.96500000000000008</v>
+        <v>0.94333333333333336</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="12"/>
-        <v>0.96</v>
+        <v>0.94666666666666666</v>
       </c>
       <c r="L45" s="1"/>
       <c r="O45" s="3">
         <f>100*AVERAGE(C45:K45)</f>
-        <v>88.833333333333329</v>
+        <v>90.111111111111114</v>
       </c>
       <c r="P45" s="3">
         <f>100*STDEV(C45:H45)</f>
-        <v>10.98066482504583</v>
+        <v>7.8327422944874066</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A581411-D424-4C45-96BB-CD943152D648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7B82F1-8A18-574C-8E4F-F9B7CB57D6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="5020" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
   <dimension ref="B2:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1388,16 +1388,43 @@
       <c r="B29" t="s">
         <v>46</v>
       </c>
+      <c r="C29">
+        <v>82</v>
+      </c>
+      <c r="D29">
+        <v>95</v>
+      </c>
+      <c r="E29">
+        <v>92</v>
+      </c>
+      <c r="F29">
+        <v>95</v>
+      </c>
+      <c r="G29">
+        <v>87</v>
+      </c>
+      <c r="H29">
+        <v>94</v>
+      </c>
+      <c r="I29">
+        <v>96</v>
+      </c>
+      <c r="J29">
+        <v>90</v>
+      </c>
+      <c r="K29">
+        <v>87</v>
+      </c>
       <c r="M29">
         <v>100</v>
       </c>
-      <c r="O29" s="3" t="e">
+      <c r="O29" s="3">
         <f>AVERAGE(C29:H29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P29" s="3" t="e">
+        <v>90.833333333333329</v>
+      </c>
+      <c r="P29" s="3">
         <f>STDEV(C29:H29)</f>
-        <v>#DIV/0!</v>
+        <v>5.2694085689635672</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
@@ -1533,6 +1560,42 @@
       <c r="B36" t="s">
         <v>46</v>
       </c>
+      <c r="C36">
+        <f>C29*C30</f>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:K36" si="10">D29*D30</f>
+        <v>4.75</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="10"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="10"/>
+        <v>4.75</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="10"/>
+        <v>4.3500000000000005</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="10"/>
+        <v>4.7</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="10"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="10"/>
+        <v>4.5</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="10"/>
+        <v>4.3500000000000005</v>
+      </c>
       <c r="M36">
         <f>M29*M30</f>
         <v>5</v>
@@ -1576,43 +1639,43 @@
       </c>
       <c r="C42">
         <f>SUM(C9,C22,C13,C17,C26,C36,C37,C38)</f>
-        <v>46.72</v>
+        <v>50.82</v>
       </c>
       <c r="D42">
         <f>SUM(D9,D22,D13,D17,D26,D36,D37,D38)</f>
-        <v>44</v>
+        <v>48.75</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42:K42" si="10">SUM(E9,E22,E13,E17,E26,E36,E37,E38)</f>
-        <v>35.68</v>
+        <f t="shared" ref="E42:K42" si="11">SUM(E9,E22,E13,E17,E26,E36,E37,E38)</f>
+        <v>40.28</v>
       </c>
       <c r="F42">
-        <f t="shared" si="10"/>
-        <v>41.44</v>
+        <f t="shared" si="11"/>
+        <v>46.19</v>
       </c>
       <c r="G42">
-        <f t="shared" si="10"/>
-        <v>43.36</v>
+        <f t="shared" si="11"/>
+        <v>47.71</v>
       </c>
       <c r="H42">
-        <f t="shared" si="10"/>
-        <v>44</v>
+        <f t="shared" si="11"/>
+        <v>48.7</v>
       </c>
       <c r="I42">
-        <f t="shared" si="10"/>
-        <v>43.36</v>
+        <f t="shared" si="11"/>
+        <v>48.16</v>
       </c>
       <c r="J42">
-        <f t="shared" si="10"/>
-        <v>45.28</v>
+        <f t="shared" si="11"/>
+        <v>49.78</v>
       </c>
       <c r="K42">
-        <f t="shared" si="10"/>
-        <v>45.44</v>
+        <f t="shared" si="11"/>
+        <v>49.79</v>
       </c>
       <c r="M42">
-        <f>SUM(M9,M13,M26)</f>
-        <v>48</v>
+        <f>SUM(M9,M13,M26,M36)</f>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
@@ -1637,48 +1700,48 @@
       </c>
       <c r="C45" s="1">
         <f>C42/$M$42</f>
-        <v>0.97333333333333327</v>
+        <v>0.95886792452830194</v>
       </c>
       <c r="D45" s="1">
         <f>D42/$M$42</f>
-        <v>0.91666666666666663</v>
+        <v>0.91981132075471694</v>
       </c>
       <c r="E45" s="1">
         <f>E42/$M$42</f>
-        <v>0.74333333333333329</v>
+        <v>0.76</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" ref="F45:G45" si="11">F42/$M$42</f>
-        <v>0.86333333333333329</v>
+        <f t="shared" ref="F45:G45" si="12">F42/$M$42</f>
+        <v>0.8715094339622641</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="11"/>
-        <v>0.90333333333333332</v>
+        <f t="shared" si="12"/>
+        <v>0.90018867924528301</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" ref="H45:K45" si="12">H42/$M$42</f>
-        <v>0.91666666666666663</v>
+        <f t="shared" ref="H45:K45" si="13">H42/$M$42</f>
+        <v>0.9188679245283019</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="12"/>
-        <v>0.90333333333333332</v>
+        <f t="shared" si="13"/>
+        <v>0.9086792452830188</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="12"/>
-        <v>0.94333333333333336</v>
+        <f t="shared" si="13"/>
+        <v>0.93924528301886789</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="12"/>
-        <v>0.94666666666666666</v>
+        <f t="shared" si="13"/>
+        <v>0.93943396226415088</v>
       </c>
       <c r="L45" s="1"/>
       <c r="O45" s="3">
         <f>100*AVERAGE(C45:K45)</f>
-        <v>90.111111111111114</v>
+        <v>90.184486373165612</v>
       </c>
       <c r="P45" s="3">
         <f>100*STDEV(C45:H45)</f>
-        <v>7.8327422944874066</v>
+        <v>6.8980136031783337</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7B82F1-8A18-574C-8E4F-F9B7CB57D6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0635974-2088-6640-B6AC-40DBEE6BE83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="5020" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="22500" yWindow="8160" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
     <t>Tim</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Total Exam Average</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,6 +246,14 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -283,12 +291,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
   <dimension ref="B2:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1029,16 +1038,43 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>73</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>71</v>
+      </c>
+      <c r="H14">
+        <v>96</v>
+      </c>
+      <c r="I14">
+        <v>91</v>
+      </c>
+      <c r="J14">
+        <v>93</v>
+      </c>
+      <c r="K14">
+        <v>97</v>
+      </c>
       <c r="M14">
         <v>100</v>
       </c>
-      <c r="O14" s="3" t="e">
-        <f>AVERAGE(C14:H14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P14" s="3" t="e">
-        <f>STDEV(C14:M14)</f>
-        <v>#DIV/0!</v>
+      <c r="O14" s="3">
+        <f>AVERAGE(C14:K14)</f>
+        <v>84.666666666666671</v>
+      </c>
+      <c r="P14" s="3">
+        <f>STDEV(C14:H14)</f>
+        <v>11.016654059498608</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>23</v>
@@ -1051,6 +1087,37 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
+        <f>O14+H15</f>
+        <v>89.666666666666671</v>
+      </c>
       <c r="R15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1102,39 +1169,39 @@
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C17">
         <f t="shared" ref="C17:K17" si="5">(C14+C15)*C16</f>
-        <v>0</v>
+        <v>15.36</v>
       </c>
       <c r="D17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="E17">
         <f>(E14+E15)*E16</f>
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="F17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12.16</v>
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>16.16</v>
       </c>
       <c r="I17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15.36</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15.68</v>
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>16.32</v>
       </c>
       <c r="M17">
         <f t="shared" ref="M17" si="6">(M14+M15)*M16</f>
@@ -1178,6 +1245,15 @@
       <c r="B20" t="s">
         <v>52</v>
       </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
@@ -1212,6 +1288,9 @@
       </c>
       <c r="M21">
         <v>0.16</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
@@ -1221,7 +1300,7 @@
       </c>
       <c r="D22">
         <f t="shared" ref="D22:K22" si="7">(D18+D19+D20)*D21</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E22">
         <f>(E18+E19+E20)*E21</f>
@@ -1229,7 +1308,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
@@ -1245,7 +1324,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K22">
         <f t="shared" si="7"/>
@@ -1255,6 +1334,10 @@
         <f>(M18+M20)*M21</f>
         <v>16</v>
       </c>
+      <c r="O22" s="3">
+        <f>AVERAGE(O6,O10,O14)</f>
+        <v>82.444444444444457</v>
+      </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
@@ -1466,16 +1549,43 @@
       <c r="B31" t="s">
         <v>47</v>
       </c>
+      <c r="C31" s="5">
+        <v>95</v>
+      </c>
+      <c r="D31" s="5">
+        <v>95</v>
+      </c>
+      <c r="E31" s="5">
+        <v>95</v>
+      </c>
+      <c r="F31" s="5">
+        <v>95</v>
+      </c>
+      <c r="G31" s="5">
+        <v>95</v>
+      </c>
+      <c r="H31" s="5">
+        <v>95</v>
+      </c>
+      <c r="I31" s="5">
+        <v>95</v>
+      </c>
+      <c r="J31" s="5">
+        <v>95</v>
+      </c>
+      <c r="K31" s="5">
+        <v>95</v>
+      </c>
       <c r="M31">
         <v>100</v>
       </c>
-      <c r="O31" s="3" t="e">
+      <c r="O31" s="3">
         <f>AVERAGE(C31:H31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P31" s="3" t="e">
+        <v>95</v>
+      </c>
+      <c r="P31" s="3">
         <f>STDEV(C31:H31)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
@@ -1605,6 +1715,42 @@
       <c r="B37" t="s">
         <v>47</v>
       </c>
+      <c r="C37">
+        <f>C32*C31</f>
+        <v>4.75</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:K37" si="11">D32*D31</f>
+        <v>4.75</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="11"/>
+        <v>4.75</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="11"/>
+        <v>4.75</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="11"/>
+        <v>4.75</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>4.75</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="11"/>
+        <v>4.75</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="11"/>
+        <v>4.75</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="11"/>
+        <v>4.75</v>
+      </c>
       <c r="M37">
         <f>M31*M32</f>
         <v>5</v>
@@ -1619,15 +1765,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>62</v>
-      </c>
-      <c r="M39">
-        <f>M29*M30+M31*M32+M33*M34</f>
-        <v>20</v>
-      </c>
-    </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>42</v>
@@ -1639,43 +1776,43 @@
       </c>
       <c r="C42">
         <f>SUM(C9,C22,C13,C17,C26,C36,C37,C38)</f>
-        <v>50.82</v>
+        <v>70.929999999999993</v>
       </c>
       <c r="D42">
         <f>SUM(D9,D22,D13,D17,D26,D36,D37,D38)</f>
-        <v>48.75</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42:K42" si="11">SUM(E9,E22,E13,E17,E26,E36,E37,E38)</f>
-        <v>40.28</v>
+        <f t="shared" ref="E42:K42" si="12">SUM(E9,E22,E13,E17,E26,E36,E37,E38)</f>
+        <v>57.51</v>
       </c>
       <c r="F42">
-        <f t="shared" si="11"/>
-        <v>46.19</v>
+        <f t="shared" si="12"/>
+        <v>63.74</v>
       </c>
       <c r="G42">
-        <f t="shared" si="11"/>
-        <v>47.71</v>
+        <f t="shared" si="12"/>
+        <v>64.62</v>
       </c>
       <c r="H42">
-        <f t="shared" si="11"/>
-        <v>48.7</v>
+        <f t="shared" si="12"/>
+        <v>69.61</v>
       </c>
       <c r="I42">
-        <f t="shared" si="11"/>
-        <v>48.16</v>
+        <f t="shared" si="12"/>
+        <v>68.27</v>
       </c>
       <c r="J42">
-        <f t="shared" si="11"/>
-        <v>49.78</v>
+        <f t="shared" si="12"/>
+        <v>71.009999999999991</v>
       </c>
       <c r="K42">
-        <f t="shared" si="11"/>
-        <v>49.79</v>
+        <f t="shared" si="12"/>
+        <v>70.86</v>
       </c>
       <c r="M42">
-        <f>SUM(M9,M13,M26,M36)</f>
-        <v>53</v>
+        <f>SUM(M9,M13,M26,M36,M17,M37)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
@@ -1700,48 +1837,48 @@
       </c>
       <c r="C45" s="1">
         <f>C42/$M$42</f>
-        <v>0.95886792452830194</v>
+        <v>0.95851351351351344</v>
       </c>
       <c r="D45" s="1">
         <f>D42/$M$42</f>
-        <v>0.91981132075471694</v>
+        <v>0.91756756756756763</v>
       </c>
       <c r="E45" s="1">
         <f>E42/$M$42</f>
-        <v>0.76</v>
+        <v>0.77716216216216216</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" ref="F45:G45" si="12">F42/$M$42</f>
-        <v>0.8715094339622641</v>
+        <f t="shared" ref="F45:G45" si="13">F42/$M$42</f>
+        <v>0.86135135135135132</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="12"/>
-        <v>0.90018867924528301</v>
+        <f t="shared" si="13"/>
+        <v>0.87324324324324332</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" ref="H45:K45" si="13">H42/$M$42</f>
-        <v>0.9188679245283019</v>
+        <f t="shared" ref="H45:K45" si="14">H42/$M$42</f>
+        <v>0.94067567567567567</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="13"/>
-        <v>0.9086792452830188</v>
+        <f t="shared" si="14"/>
+        <v>0.92256756756756753</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="13"/>
-        <v>0.93924528301886789</v>
+        <f t="shared" si="14"/>
+        <v>0.95959459459459451</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="13"/>
-        <v>0.93943396226415088</v>
+        <f t="shared" si="14"/>
+        <v>0.95756756756756756</v>
       </c>
       <c r="L45" s="1"/>
       <c r="O45" s="3">
         <f>100*AVERAGE(C45:K45)</f>
-        <v>90.184486373165612</v>
+        <v>90.758258258258252</v>
       </c>
       <c r="P45" s="3">
         <f>100*STDEV(C45:H45)</f>
-        <v>6.8980136031783337</v>
+        <v>6.6081794981312916</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0635974-2088-6640-B6AC-40DBEE6BE83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F291AC54-7C98-3044-821B-FB1F9319171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22500" yWindow="8160" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="2680" yWindow="5020" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,7 @@
   <dimension ref="B2:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1248,6 +1248,9 @@
       <c r="D20">
         <v>5</v>
       </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
       <c r="F20">
         <v>5</v>
       </c>
@@ -1304,7 +1307,7 @@
       </c>
       <c r="E22">
         <f>(E18+E19+E20)*E21</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F22">
         <f t="shared" si="7"/>
@@ -1338,6 +1341,10 @@
         <f>AVERAGE(O6,O10,O14)</f>
         <v>82.444444444444457</v>
       </c>
+      <c r="P22" s="3">
+        <f>AVERAGE(O7,O11,O15)</f>
+        <v>89.111111111111128</v>
+      </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
@@ -1784,7 +1791,7 @@
       </c>
       <c r="E42">
         <f t="shared" ref="E42:K42" si="12">SUM(E9,E22,E13,E17,E26,E36,E37,E38)</f>
-        <v>57.51</v>
+        <v>58.309999999999995</v>
       </c>
       <c r="F42">
         <f t="shared" si="12"/>
@@ -1845,7 +1852,7 @@
       </c>
       <c r="E45" s="1">
         <f>E42/$M$42</f>
-        <v>0.77716216216216216</v>
+        <v>0.78797297297297286</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" ref="F45:G45" si="13">F42/$M$42</f>
@@ -1874,11 +1881,11 @@
       <c r="L45" s="1"/>
       <c r="O45" s="3">
         <f>100*AVERAGE(C45:K45)</f>
-        <v>90.758258258258252</v>
+        <v>90.878378378378372</v>
       </c>
       <c r="P45" s="3">
         <f>100*STDEV(C45:H45)</f>
-        <v>6.6081794981312916</v>
+        <v>6.2502909598697087</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F291AC54-7C98-3044-821B-FB1F9319171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E030413D-D46E-1442-A2C2-8AF11946D78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="5020" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -291,13 +291,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,7 +616,7 @@
   <dimension ref="B2:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1254,6 +1255,9 @@
       <c r="F20">
         <v>5</v>
       </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
       <c r="J20">
         <v>5</v>
       </c>
@@ -1315,7 +1319,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H22">
         <f t="shared" si="7"/>
@@ -1556,23 +1560,23 @@
       <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="5">
-        <v>95</v>
+      <c r="C31" s="6">
+        <v>99</v>
       </c>
       <c r="D31" s="5">
         <v>95</v>
       </c>
-      <c r="E31" s="5">
-        <v>95</v>
-      </c>
-      <c r="F31" s="5">
-        <v>95</v>
-      </c>
-      <c r="G31" s="5">
-        <v>95</v>
-      </c>
-      <c r="H31" s="5">
-        <v>95</v>
+      <c r="E31" s="6">
+        <v>93</v>
+      </c>
+      <c r="F31" s="6">
+        <v>96</v>
+      </c>
+      <c r="G31" s="6">
+        <v>96</v>
+      </c>
+      <c r="H31" s="6">
+        <v>99</v>
       </c>
       <c r="I31" s="5">
         <v>95</v>
@@ -1588,11 +1592,11 @@
       </c>
       <c r="O31" s="3">
         <f>AVERAGE(C31:H31)</f>
-        <v>95</v>
+        <v>96.333333333333329</v>
       </c>
       <c r="P31" s="3">
         <f>STDEV(C31:H31)</f>
-        <v>0</v>
+        <v>2.338090388900024</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
@@ -1724,7 +1728,7 @@
       </c>
       <c r="C37">
         <f>C32*C31</f>
-        <v>4.75</v>
+        <v>4.95</v>
       </c>
       <c r="D37">
         <f t="shared" ref="D37:K37" si="11">D32*D31</f>
@@ -1732,19 +1736,19 @@
       </c>
       <c r="E37">
         <f t="shared" si="11"/>
-        <v>4.75</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F37">
         <f t="shared" si="11"/>
-        <v>4.75</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="G37">
         <f t="shared" si="11"/>
-        <v>4.75</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="H37">
         <f t="shared" si="11"/>
-        <v>4.75</v>
+        <v>4.95</v>
       </c>
       <c r="I37">
         <f t="shared" si="11"/>
@@ -1783,7 +1787,7 @@
       </c>
       <c r="C42">
         <f>SUM(C9,C22,C13,C17,C26,C36,C37,C38)</f>
-        <v>70.929999999999993</v>
+        <v>71.13</v>
       </c>
       <c r="D42">
         <f>SUM(D9,D22,D13,D17,D26,D36,D37,D38)</f>
@@ -1791,19 +1795,19 @@
       </c>
       <c r="E42">
         <f t="shared" ref="E42:K42" si="12">SUM(E9,E22,E13,E17,E26,E36,E37,E38)</f>
-        <v>58.309999999999995</v>
+        <v>58.209999999999994</v>
       </c>
       <c r="F42">
         <f t="shared" si="12"/>
-        <v>63.74</v>
+        <v>63.790000000000006</v>
       </c>
       <c r="G42">
         <f t="shared" si="12"/>
-        <v>64.62</v>
+        <v>65.47</v>
       </c>
       <c r="H42">
         <f t="shared" si="12"/>
-        <v>69.61</v>
+        <v>69.81</v>
       </c>
       <c r="I42">
         <f t="shared" si="12"/>
@@ -1844,7 +1848,7 @@
       </c>
       <c r="C45" s="1">
         <f>C42/$M$42</f>
-        <v>0.95851351351351344</v>
+        <v>0.96121621621621611</v>
       </c>
       <c r="D45" s="1">
         <f>D42/$M$42</f>
@@ -1852,19 +1856,19 @@
       </c>
       <c r="E45" s="1">
         <f>E42/$M$42</f>
-        <v>0.78797297297297286</v>
+        <v>0.78662162162162153</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" ref="F45:G45" si="13">F42/$M$42</f>
-        <v>0.86135135135135132</v>
+        <v>0.86202702702702716</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="13"/>
-        <v>0.87324324324324332</v>
+        <v>0.88472972972972974</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" ref="H45:K45" si="14">H42/$M$42</f>
-        <v>0.94067567567567567</v>
+        <v>0.94337837837837846</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="14"/>
@@ -1881,11 +1885,11 @@
       <c r="L45" s="1"/>
       <c r="O45" s="3">
         <f>100*AVERAGE(C45:K45)</f>
-        <v>90.878378378378372</v>
+        <v>91.058558558558573</v>
       </c>
       <c r="P45" s="3">
         <f>100*STDEV(C45:H45)</f>
-        <v>6.2502909598697087</v>
+        <v>6.3463489021350599</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E030413D-D46E-1442-A2C2-8AF11946D78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B615DDA3-0858-2D44-837D-8100445FEC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="5020" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -233,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,14 +246,6 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -291,14 +283,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +606,7 @@
   <dimension ref="B2:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1246,6 +1236,9 @@
       <c r="B20" t="s">
         <v>52</v>
       </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
       <c r="D20">
         <v>5</v>
       </c>
@@ -1258,7 +1251,16 @@
       <c r="G20">
         <v>5</v>
       </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
       <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
         <v>5</v>
       </c>
     </row>
@@ -1303,7 +1305,7 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C22">
         <f>(C18+C19+C20)*C21</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22:K22" si="7">(D18+D19+D20)*D21</f>
@@ -1323,11 +1325,11 @@
       </c>
       <c r="H22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J22">
         <f t="shared" si="7"/>
@@ -1335,7 +1337,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M22">
         <f>(M18+M20)*M21</f>
@@ -1560,43 +1562,43 @@
       <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31">
         <v>99</v>
       </c>
-      <c r="D31" s="5">
-        <v>95</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="D31">
+        <v>96</v>
+      </c>
+      <c r="E31">
         <v>93</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31">
         <v>96</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31">
         <v>96</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31">
         <v>99</v>
       </c>
-      <c r="I31" s="5">
-        <v>95</v>
-      </c>
-      <c r="J31" s="5">
-        <v>95</v>
-      </c>
-      <c r="K31" s="5">
-        <v>95</v>
+      <c r="I31">
+        <v>99</v>
+      </c>
+      <c r="J31">
+        <v>93</v>
+      </c>
+      <c r="K31">
+        <v>90</v>
       </c>
       <c r="M31">
         <v>100</v>
       </c>
       <c r="O31" s="3">
         <f>AVERAGE(C31:H31)</f>
-        <v>96.333333333333329</v>
+        <v>96.5</v>
       </c>
       <c r="P31" s="3">
         <f>STDEV(C31:H31)</f>
-        <v>2.338090388900024</v>
+        <v>2.2583179581272428</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
@@ -1732,7 +1734,7 @@
       </c>
       <c r="D37">
         <f t="shared" ref="D37:K37" si="11">D32*D31</f>
-        <v>4.75</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="E37">
         <f t="shared" si="11"/>
@@ -1752,15 +1754,15 @@
       </c>
       <c r="I37">
         <f t="shared" si="11"/>
-        <v>4.75</v>
+        <v>4.95</v>
       </c>
       <c r="J37">
         <f t="shared" si="11"/>
-        <v>4.75</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="K37">
         <f t="shared" si="11"/>
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
         <f>M31*M32</f>
@@ -1787,11 +1789,11 @@
       </c>
       <c r="C42">
         <f>SUM(C9,C22,C13,C17,C26,C36,C37,C38)</f>
-        <v>71.13</v>
+        <v>71.930000000000007</v>
       </c>
       <c r="D42">
         <f>SUM(D9,D22,D13,D17,D26,D36,D37,D38)</f>
-        <v>67.900000000000006</v>
+        <v>67.95</v>
       </c>
       <c r="E42">
         <f t="shared" ref="E42:K42" si="12">SUM(E9,E22,E13,E17,E26,E36,E37,E38)</f>
@@ -1807,19 +1809,19 @@
       </c>
       <c r="H42">
         <f t="shared" si="12"/>
-        <v>69.81</v>
+        <v>70.61</v>
       </c>
       <c r="I42">
         <f t="shared" si="12"/>
-        <v>68.27</v>
+        <v>69.27000000000001</v>
       </c>
       <c r="J42">
         <f t="shared" si="12"/>
-        <v>71.009999999999991</v>
+        <v>70.91</v>
       </c>
       <c r="K42">
         <f t="shared" si="12"/>
-        <v>70.86</v>
+        <v>71.41</v>
       </c>
       <c r="M42">
         <f>SUM(M9,M13,M26,M36,M17,M37)</f>
@@ -1848,11 +1850,11 @@
       </c>
       <c r="C45" s="1">
         <f>C42/$M$42</f>
-        <v>0.96121621621621611</v>
+        <v>0.97202702702702715</v>
       </c>
       <c r="D45" s="1">
         <f>D42/$M$42</f>
-        <v>0.91756756756756763</v>
+        <v>0.91824324324324325</v>
       </c>
       <c r="E45" s="1">
         <f>E42/$M$42</f>
@@ -1868,28 +1870,28 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" ref="H45:K45" si="14">H42/$M$42</f>
-        <v>0.94337837837837846</v>
+        <v>0.95418918918918916</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="14"/>
-        <v>0.92256756756756753</v>
+        <v>0.93608108108108123</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="14"/>
-        <v>0.95959459459459451</v>
+        <v>0.95824324324324317</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="14"/>
-        <v>0.95756756756756756</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="L45" s="1"/>
       <c r="O45" s="3">
         <f>100*AVERAGE(C45:K45)</f>
-        <v>91.058558558558573</v>
+        <v>91.52402402402403</v>
       </c>
       <c r="P45" s="3">
         <f>100*STDEV(C45:H45)</f>
-        <v>6.3463489021350599</v>
+        <v>6.7683234330213518</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B615DDA3-0858-2D44-837D-8100445FEC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECFB89B-ED56-A84B-9DC1-5A8C94FE96C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="5020" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -233,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,6 +246,13 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -283,12 +290,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
   <dimension ref="B2:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1209,16 +1217,43 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
+      <c r="C18" s="5">
+        <v>90</v>
+      </c>
+      <c r="D18" s="5">
+        <v>90</v>
+      </c>
+      <c r="E18" s="5">
+        <v>90</v>
+      </c>
+      <c r="F18" s="5">
+        <v>90</v>
+      </c>
+      <c r="G18" s="5">
+        <v>90</v>
+      </c>
+      <c r="H18" s="5">
+        <v>90</v>
+      </c>
+      <c r="I18" s="5">
+        <v>90</v>
+      </c>
+      <c r="J18" s="5">
+        <v>90</v>
+      </c>
+      <c r="K18" s="5">
+        <v>90</v>
+      </c>
       <c r="M18">
         <v>100</v>
       </c>
-      <c r="O18" s="3" t="e">
+      <c r="O18" s="3">
         <f>AVERAGE(C18:H18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" s="3" t="e">
+        <v>90</v>
+      </c>
+      <c r="P18" s="3">
         <f>STDEV(C18:M18)</f>
-        <v>#DIV/0!</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>31</v>
@@ -1231,6 +1266,15 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
@@ -1305,47 +1349,47 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C22">
         <f>(C18+C19+C20)*C21</f>
-        <v>0.8</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22:K22" si="7">(D18+D19+D20)*D21</f>
-        <v>0.8</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="E22">
         <f>(E18+E19+E20)*E21</f>
-        <v>0.8</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="F22">
         <f t="shared" si="7"/>
-        <v>0.8</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>0.8</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="H22">
         <f t="shared" si="7"/>
-        <v>0.8</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>0.8</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="J22">
         <f t="shared" si="7"/>
-        <v>0.8</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="K22">
         <f t="shared" si="7"/>
-        <v>0.8</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="M22">
         <f>(M18+M20)*M21</f>
         <v>16</v>
       </c>
       <c r="O22" s="3">
-        <f>AVERAGE(O6,O10,O14)</f>
-        <v>82.444444444444457</v>
+        <f>AVERAGE(O6,O10,O14,O18)</f>
+        <v>84.333333333333343</v>
       </c>
       <c r="P22" s="3">
         <f>AVERAGE(O7,O11,O15)</f>
@@ -1640,6 +1684,33 @@
       <c r="B33" t="s">
         <v>48</v>
       </c>
+      <c r="C33" s="5">
+        <v>95</v>
+      </c>
+      <c r="D33" s="5">
+        <v>95</v>
+      </c>
+      <c r="E33" s="5">
+        <v>95</v>
+      </c>
+      <c r="F33" s="5">
+        <v>95</v>
+      </c>
+      <c r="G33" s="5">
+        <v>95</v>
+      </c>
+      <c r="H33" s="5">
+        <v>95</v>
+      </c>
+      <c r="I33" s="5">
+        <v>95</v>
+      </c>
+      <c r="J33" s="5">
+        <v>95</v>
+      </c>
+      <c r="K33" s="5">
+        <v>95</v>
+      </c>
       <c r="M33">
         <v>100</v>
       </c>
@@ -1773,6 +1844,42 @@
       <c r="B38" t="s">
         <v>48</v>
       </c>
+      <c r="C38">
+        <f>C33*C34</f>
+        <v>9.5</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:K38" si="12">D33*D34</f>
+        <v>9.5</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="12"/>
+        <v>9.5</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="12"/>
+        <v>9.5</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="12"/>
+        <v>9.5</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="12"/>
+        <v>9.5</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="12"/>
+        <v>9.5</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="12"/>
+        <v>9.5</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="12"/>
+        <v>9.5</v>
+      </c>
       <c r="M38">
         <f>M33*M34</f>
         <v>10</v>
@@ -1789,43 +1896,43 @@
       </c>
       <c r="C42">
         <f>SUM(C9,C22,C13,C17,C26,C36,C37,C38)</f>
-        <v>71.930000000000007</v>
+        <v>95.83</v>
       </c>
       <c r="D42">
         <f>SUM(D9,D22,D13,D17,D26,D36,D37,D38)</f>
-        <v>67.95</v>
+        <v>91.850000000000009</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42:K42" si="12">SUM(E9,E22,E13,E17,E26,E36,E37,E38)</f>
-        <v>58.209999999999994</v>
+        <f t="shared" ref="E42:K42" si="13">SUM(E9,E22,E13,E17,E26,E36,E37,E38)</f>
+        <v>82.11</v>
       </c>
       <c r="F42">
-        <f t="shared" si="12"/>
-        <v>63.790000000000006</v>
+        <f t="shared" si="13"/>
+        <v>87.69</v>
       </c>
       <c r="G42">
-        <f t="shared" si="12"/>
-        <v>65.47</v>
+        <f t="shared" si="13"/>
+        <v>89.37</v>
       </c>
       <c r="H42">
-        <f t="shared" si="12"/>
-        <v>70.61</v>
+        <f t="shared" si="13"/>
+        <v>94.51</v>
       </c>
       <c r="I42">
-        <f t="shared" si="12"/>
-        <v>69.27000000000001</v>
+        <f t="shared" si="13"/>
+        <v>93.17</v>
       </c>
       <c r="J42">
-        <f t="shared" si="12"/>
-        <v>70.91</v>
+        <f t="shared" si="13"/>
+        <v>94.81</v>
       </c>
       <c r="K42">
-        <f t="shared" si="12"/>
-        <v>71.41</v>
+        <f t="shared" si="13"/>
+        <v>95.31</v>
       </c>
       <c r="M42">
-        <f>SUM(M9,M13,M26,M36,M17,M37)</f>
-        <v>74</v>
+        <f>SUM(M9,M13,M26,M36,M17,M37,M22,M38)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
@@ -1850,48 +1957,48 @@
       </c>
       <c r="C45" s="1">
         <f>C42/$M$42</f>
-        <v>0.97202702702702715</v>
+        <v>0.95829999999999993</v>
       </c>
       <c r="D45" s="1">
         <f>D42/$M$42</f>
-        <v>0.91824324324324325</v>
+        <v>0.91850000000000009</v>
       </c>
       <c r="E45" s="1">
         <f>E42/$M$42</f>
-        <v>0.78662162162162153</v>
+        <v>0.82109999999999994</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" ref="F45:G45" si="13">F42/$M$42</f>
-        <v>0.86202702702702716</v>
+        <f t="shared" ref="F45:G45" si="14">F42/$M$42</f>
+        <v>0.87690000000000001</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="13"/>
-        <v>0.88472972972972974</v>
+        <f t="shared" si="14"/>
+        <v>0.89370000000000005</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" ref="H45:K45" si="14">H42/$M$42</f>
-        <v>0.95418918918918916</v>
+        <f t="shared" ref="H45:K45" si="15">H42/$M$42</f>
+        <v>0.94510000000000005</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="14"/>
-        <v>0.93608108108108123</v>
+        <f t="shared" si="15"/>
+        <v>0.93169999999999997</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="14"/>
-        <v>0.95824324324324317</v>
+        <f t="shared" si="15"/>
+        <v>0.94810000000000005</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="14"/>
-        <v>0.96499999999999997</v>
+        <f t="shared" si="15"/>
+        <v>0.95310000000000006</v>
       </c>
       <c r="L45" s="1"/>
       <c r="O45" s="3">
         <f>100*AVERAGE(C45:K45)</f>
-        <v>91.52402402402403</v>
+        <v>91.62777777777778</v>
       </c>
       <c r="P45" s="3">
         <f>100*STDEV(C45:H45)</f>
-        <v>6.7683234330213518</v>
+        <v>5.0085593404357986</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECFB89B-ED56-A84B-9DC1-5A8C94FE96C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABFFF23-A5D5-A343-9A06-EF2218399F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="5020" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>Weight</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Total Exam Average</t>
+  </si>
+  <si>
+    <t>late</t>
   </si>
 </sst>
 </file>
@@ -290,13 +293,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
-  <dimension ref="B2:S47"/>
+  <dimension ref="B2:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1217,43 +1222,43 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="5">
-        <v>90</v>
-      </c>
-      <c r="D18" s="5">
-        <v>90</v>
-      </c>
-      <c r="E18" s="5">
-        <v>90</v>
-      </c>
-      <c r="F18" s="5">
-        <v>90</v>
-      </c>
-      <c r="G18" s="5">
-        <v>90</v>
-      </c>
-      <c r="H18" s="5">
-        <v>90</v>
-      </c>
-      <c r="I18" s="5">
-        <v>90</v>
-      </c>
-      <c r="J18" s="5">
-        <v>90</v>
-      </c>
-      <c r="K18" s="5">
-        <v>90</v>
+      <c r="C18">
+        <v>103</v>
+      </c>
+      <c r="D18" s="6">
+        <v>92</v>
+      </c>
+      <c r="E18">
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <v>87</v>
+      </c>
+      <c r="G18" s="6">
+        <v>80</v>
+      </c>
+      <c r="H18">
+        <v>99</v>
+      </c>
+      <c r="I18" s="6">
+        <v>94</v>
+      </c>
+      <c r="J18" s="6">
+        <v>96</v>
+      </c>
+      <c r="K18" s="6">
+        <v>96</v>
       </c>
       <c r="M18">
         <v>100</v>
       </c>
       <c r="O18" s="3">
-        <f>AVERAGE(C18:H18)</f>
-        <v>90</v>
+        <f>AVERAGE(C18:K18)</f>
+        <v>91.888888888888886</v>
       </c>
       <c r="P18" s="3">
         <f>STDEV(C18:M18)</f>
-        <v>3.1622776601683795</v>
+        <v>8.0145700654079572</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>31</v>
@@ -1266,15 +1271,37 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="C19" s="6">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5</v>
+      </c>
+      <c r="H19" s="6">
+        <v>5</v>
+      </c>
+      <c r="I19" s="6">
+        <v>5</v>
+      </c>
+      <c r="J19" s="6">
+        <v>5</v>
+      </c>
+      <c r="K19" s="6">
+        <v>5</v>
+      </c>
+      <c r="O19" s="3">
+        <f>O18+H19</f>
+        <v>96.888888888888886</v>
+      </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
@@ -1349,39 +1376,39 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C22">
         <f>(C18+C19+C20)*C21</f>
-        <v>15.200000000000001</v>
+        <v>18.080000000000002</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22:K22" si="7">(D18+D19+D20)*D21</f>
-        <v>15.200000000000001</v>
+        <v>16.32</v>
       </c>
       <c r="E22">
         <f>(E18+E19+E20)*E21</f>
-        <v>15.200000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="F22">
         <f t="shared" si="7"/>
-        <v>15.200000000000001</v>
+        <v>15.52</v>
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>15.200000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="H22">
         <f t="shared" si="7"/>
-        <v>15.200000000000001</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>15.200000000000001</v>
+        <v>16.64</v>
       </c>
       <c r="J22">
         <f t="shared" si="7"/>
-        <v>15.200000000000001</v>
+        <v>16.96</v>
       </c>
       <c r="K22">
         <f t="shared" si="7"/>
-        <v>15.200000000000001</v>
+        <v>16.96</v>
       </c>
       <c r="M22">
         <f>(M18+M20)*M21</f>
@@ -1389,11 +1416,11 @@
       </c>
       <c r="O22" s="3">
         <f>AVERAGE(O6,O10,O14,O18)</f>
-        <v>84.333333333333343</v>
+        <v>84.805555555555571</v>
       </c>
       <c r="P22" s="3">
-        <f>AVERAGE(O7,O11,O15)</f>
-        <v>89.111111111111128</v>
+        <f>AVERAGE(O7,O11,O15,O19)</f>
+        <v>91.055555555555571</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
@@ -1559,12 +1586,12 @@
         <v>100</v>
       </c>
       <c r="O29" s="3">
-        <f>AVERAGE(C29:H29)</f>
-        <v>90.833333333333329</v>
+        <f>AVERAGE(C29:K29)</f>
+        <v>90.888888888888886</v>
       </c>
       <c r="P29" s="3">
-        <f>STDEV(C29:H29)</f>
-        <v>5.2694085689635672</v>
+        <f>STDEV(C29:K29)</f>
+        <v>4.7551142058957021</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
@@ -1637,12 +1664,12 @@
         <v>100</v>
       </c>
       <c r="O31" s="3">
-        <f>AVERAGE(C31:H31)</f>
-        <v>96.5</v>
+        <f>AVERAGE(C31:K31)</f>
+        <v>95.666666666666671</v>
       </c>
       <c r="P31" s="3">
-        <f>STDEV(C31:H31)</f>
-        <v>2.2583179581272428</v>
+        <f>STDEV(C31:K31)</f>
+        <v>3.1622776601683795</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
@@ -1714,295 +1741,321 @@
       <c r="M33">
         <v>100</v>
       </c>
+      <c r="O33" s="3">
+        <f>AVERAGE(C33:K33)</f>
+        <v>95</v>
+      </c>
+      <c r="P33" s="3">
+        <f>STDEV(C33:K33)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5">
+        <v>-10</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>49</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>0.1</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>0.1</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>0.1</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>0.1</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>0.1</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>0.1</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <v>0.1</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <v>0.1</v>
       </c>
-      <c r="K34">
+      <c r="K35">
         <v>0.1</v>
       </c>
-      <c r="M34">
+      <c r="M35">
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <f>C29*C30</f>
         <v>4.1000000000000005</v>
       </c>
-      <c r="D36">
-        <f t="shared" ref="D36:K36" si="10">D29*D30</f>
+      <c r="D37">
+        <f t="shared" ref="D37:K37" si="10">D29*D30</f>
         <v>4.75</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <f t="shared" si="10"/>
         <v>4.6000000000000005</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <f t="shared" si="10"/>
         <v>4.75</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <f t="shared" si="10"/>
         <v>4.3500000000000005</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <f t="shared" si="10"/>
         <v>4.7</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <f t="shared" si="10"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="J36">
+      <c r="J37">
         <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
-      <c r="K36">
+      <c r="K37">
         <f t="shared" si="10"/>
         <v>4.3500000000000005</v>
       </c>
-      <c r="M36">
+      <c r="M37">
         <f>M29*M30</f>
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>47</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <f>C32*C31</f>
         <v>4.95</v>
       </c>
-      <c r="D37">
-        <f t="shared" ref="D37:K37" si="11">D32*D31</f>
+      <c r="D38">
+        <f t="shared" ref="D38:K38" si="11">D32*D31</f>
         <v>4.8000000000000007</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <f t="shared" si="11"/>
         <v>4.6500000000000004</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <f t="shared" si="11"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <f t="shared" si="11"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <f t="shared" si="11"/>
         <v>4.95</v>
       </c>
-      <c r="I37">
+      <c r="I38">
         <f t="shared" si="11"/>
         <v>4.95</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <f t="shared" si="11"/>
         <v>4.6500000000000004</v>
       </c>
-      <c r="K37">
+      <c r="K38">
         <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
-      <c r="M37">
+      <c r="M38">
         <f>M31*M32</f>
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="C38">
-        <f>C33*C34</f>
+      <c r="C39">
+        <f>SUM(C33:C34)*C35</f>
         <v>9.5</v>
       </c>
-      <c r="D38">
-        <f t="shared" ref="D38:K38" si="12">D33*D34</f>
+      <c r="D39">
+        <f t="shared" ref="D39:K39" si="12">SUM(D33:D34)*D35</f>
         <v>9.5</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
-      <c r="I38">
+      <c r="I39">
         <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
-      <c r="J38">
+      <c r="J39">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="12"/>
-        <v>9.5</v>
-      </c>
-      <c r="M38">
-        <f>M33*M34</f>
+      <c r="M39">
+        <f>M33*M35</f>
         <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42">
-        <f>SUM(C9,C22,C13,C17,C26,C36,C37,C38)</f>
-        <v>95.83</v>
-      </c>
-      <c r="D42">
-        <f>SUM(D9,D22,D13,D17,D26,D36,D37,D38)</f>
-        <v>91.850000000000009</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ref="E42:K42" si="13">SUM(E9,E22,E13,E17,E26,E36,E37,E38)</f>
-        <v>82.11</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="13"/>
-        <v>87.69</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="13"/>
-        <v>89.37</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="13"/>
-        <v>94.51</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="13"/>
-        <v>93.17</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="13"/>
-        <v>94.81</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="13"/>
-        <v>95.31</v>
-      </c>
-      <c r="M42">
-        <f>SUM(M9,M13,M26,M36,M17,M37,M22,M38)</f>
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>39</v>
+        <v>5</v>
+      </c>
+      <c r="C43" s="7">
+        <f>SUM(C9,C22,C13,C17,C26,C37,C38,C39)</f>
+        <v>98.710000000000008</v>
+      </c>
+      <c r="D43" s="7">
+        <f>SUM(D9,D22,D13,D17,D26,D37,D38,D39)</f>
+        <v>92.97</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" ref="E43:K43" si="13">SUM(E9,E22,E13,E17,E26,E37,E38,E39)</f>
+        <v>81.31</v>
+      </c>
+      <c r="F43" s="7">
+        <f t="shared" si="13"/>
+        <v>88.009999999999991</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="13"/>
+        <v>88.57</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="13"/>
+        <v>96.750000000000014</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="13"/>
+        <v>94.61</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="13"/>
+        <v>95.570000000000007</v>
+      </c>
+      <c r="K43" s="7">
+        <f t="shared" si="13"/>
+        <v>97.07</v>
+      </c>
+      <c r="M43">
+        <f>SUM(M9,M13,M26,M37,M17,M38,M22,M39)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="O44" t="s">
-        <v>50</v>
-      </c>
-      <c r="P44" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="O45" t="s">
+        <v>50</v>
+      </c>
+      <c r="P45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="1">
-        <f>C42/$M$42</f>
-        <v>0.95829999999999993</v>
-      </c>
-      <c r="D45" s="1">
-        <f>D42/$M$42</f>
-        <v>0.91850000000000009</v>
-      </c>
-      <c r="E45" s="1">
-        <f>E42/$M$42</f>
-        <v>0.82109999999999994</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" ref="F45:G45" si="14">F42/$M$42</f>
-        <v>0.87690000000000001</v>
-      </c>
-      <c r="G45" s="1">
+      <c r="C46" s="1">
+        <f>100*C43/$M$43</f>
+        <v>98.71</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" ref="D46:K46" si="14">100*D43/$M$43</f>
+        <v>92.97</v>
+      </c>
+      <c r="E46" s="1">
         <f t="shared" si="14"/>
-        <v>0.89370000000000005</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" ref="H45:K45" si="15">H42/$M$42</f>
-        <v>0.94510000000000005</v>
-      </c>
-      <c r="I45" s="1">
-        <f t="shared" si="15"/>
-        <v>0.93169999999999997</v>
-      </c>
-      <c r="J45" s="1">
-        <f t="shared" si="15"/>
-        <v>0.94810000000000005</v>
-      </c>
-      <c r="K45" s="1">
-        <f t="shared" si="15"/>
-        <v>0.95310000000000006</v>
-      </c>
-      <c r="L45" s="1"/>
-      <c r="O45" s="3">
-        <f>100*AVERAGE(C45:K45)</f>
-        <v>91.62777777777778</v>
-      </c>
-      <c r="P45" s="3">
-        <f>100*STDEV(C45:H45)</f>
-        <v>5.0085593404357986</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+        <v>81.31</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="14"/>
+        <v>88.01</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="14"/>
+        <v>88.57</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="14"/>
+        <v>96.750000000000014</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="14"/>
+        <v>94.61</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="14"/>
+        <v>95.57</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="14"/>
+        <v>97.07</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="O46" s="3">
+        <f>AVERAGE(C46:K46)</f>
+        <v>92.618888888888875</v>
+      </c>
+      <c r="P46" s="3">
+        <f>STDEV(C46:K46)</f>
+        <v>5.6158624547892106</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2025/grading.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABFFF23-A5D5-A343-9A06-EF2218399F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54BF95B-1B07-0545-A02B-4AF3942BD198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="5020" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="2680" yWindow="2200" windowWidth="26560" windowHeight="19940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Weight</t>
   </si>
@@ -300,8 +300,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
   <dimension ref="B2:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1225,7 +1225,7 @@
       <c r="C18">
         <v>103</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>92</v>
       </c>
       <c r="E18">
@@ -1234,19 +1234,19 @@
       <c r="F18">
         <v>87</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <v>80</v>
       </c>
       <c r="H18">
         <v>99</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18">
         <v>94</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18">
         <v>96</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18">
         <v>96</v>
       </c>
       <c r="M18">
@@ -1271,31 +1271,31 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="6">
-        <v>5</v>
-      </c>
-      <c r="D19" s="6">
-        <v>5</v>
-      </c>
-      <c r="E19" s="6">
-        <v>5</v>
-      </c>
-      <c r="F19" s="6">
-        <v>5</v>
-      </c>
-      <c r="G19" s="6">
-        <v>5</v>
-      </c>
-      <c r="H19" s="6">
-        <v>5</v>
-      </c>
-      <c r="I19" s="6">
-        <v>5</v>
-      </c>
-      <c r="J19" s="6">
-        <v>5</v>
-      </c>
-      <c r="K19" s="6">
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
         <v>5</v>
       </c>
       <c r="O19" s="3">
@@ -1711,43 +1711,43 @@
       <c r="B33" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="7">
+        <v>96</v>
+      </c>
+      <c r="D33" s="7">
+        <v>98</v>
+      </c>
+      <c r="E33" s="7">
+        <v>91</v>
+      </c>
+      <c r="F33" s="7">
+        <v>90</v>
+      </c>
+      <c r="G33" s="7">
+        <v>93</v>
+      </c>
+      <c r="H33" s="7">
+        <v>98</v>
+      </c>
+      <c r="I33" s="7">
         <v>95</v>
       </c>
-      <c r="D33" s="5">
-        <v>95</v>
-      </c>
-      <c r="E33" s="5">
-        <v>95</v>
-      </c>
-      <c r="F33" s="5">
-        <v>95</v>
-      </c>
-      <c r="G33" s="5">
-        <v>95</v>
-      </c>
-      <c r="H33" s="5">
-        <v>95</v>
-      </c>
-      <c r="I33" s="5">
-        <v>95</v>
-      </c>
-      <c r="J33" s="5">
-        <v>95</v>
-      </c>
-      <c r="K33" s="5">
-        <v>95</v>
+      <c r="J33" s="7">
+        <v>90</v>
+      </c>
+      <c r="K33" s="7">
+        <v>90</v>
       </c>
       <c r="M33">
         <v>100</v>
       </c>
       <c r="O33" s="3">
         <f>AVERAGE(C33:K33)</f>
-        <v>95</v>
+        <v>93.444444444444443</v>
       </c>
       <c r="P33" s="3">
         <f>STDEV(C33:K33)</f>
-        <v>0</v>
+        <v>3.3952581312438941</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="5">
+      <c r="J34" s="7">
         <v>-10</v>
       </c>
       <c r="K34" s="5"/>
@@ -1899,27 +1899,27 @@
       </c>
       <c r="C39">
         <f>SUM(C33:C34)*C35</f>
-        <v>9.5</v>
+        <v>9.6000000000000014</v>
       </c>
       <c r="D39">
         <f t="shared" ref="D39:K39" si="12">SUM(D33:D34)*D35</f>
-        <v>9.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E39">
         <f t="shared" si="12"/>
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="F39">
         <f t="shared" si="12"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="G39">
         <f t="shared" si="12"/>
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H39">
         <f t="shared" si="12"/>
-        <v>9.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I39">
         <f t="shared" si="12"/>
@@ -1927,11 +1927,11 @@
       </c>
       <c r="J39">
         <f t="shared" si="12"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K39">
         <f t="shared" si="12"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M39">
         <f>M33*M35</f>
@@ -1947,41 +1947,41 @@
       <c r="B43" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <f>SUM(C9,C22,C13,C17,C26,C37,C38,C39)</f>
-        <v>98.710000000000008</v>
-      </c>
-      <c r="D43" s="7">
+        <v>98.81</v>
+      </c>
+      <c r="D43" s="6">
         <f>SUM(D9,D22,D13,D17,D26,D37,D38,D39)</f>
-        <v>92.97</v>
-      </c>
-      <c r="E43" s="7">
+        <v>93.27</v>
+      </c>
+      <c r="E43" s="6">
         <f t="shared" ref="E43:K43" si="13">SUM(E9,E22,E13,E17,E26,E37,E38,E39)</f>
-        <v>81.31</v>
-      </c>
-      <c r="F43" s="7">
+        <v>80.91</v>
+      </c>
+      <c r="F43" s="6">
         <f t="shared" si="13"/>
-        <v>88.009999999999991</v>
-      </c>
-      <c r="G43" s="7">
+        <v>87.509999999999991</v>
+      </c>
+      <c r="G43" s="6">
         <f t="shared" si="13"/>
-        <v>88.57</v>
-      </c>
-      <c r="H43" s="7">
+        <v>88.36999999999999</v>
+      </c>
+      <c r="H43" s="6">
         <f t="shared" si="13"/>
-        <v>96.750000000000014</v>
-      </c>
-      <c r="I43" s="7">
+        <v>97.050000000000011</v>
+      </c>
+      <c r="I43" s="6">
         <f t="shared" si="13"/>
         <v>94.61</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="6">
         <f t="shared" si="13"/>
-        <v>95.570000000000007</v>
-      </c>
-      <c r="K43" s="7">
+        <v>95.070000000000007</v>
+      </c>
+      <c r="K43" s="6">
         <f t="shared" si="13"/>
-        <v>97.07</v>
+        <v>96.57</v>
       </c>
       <c r="M43">
         <f>SUM(M9,M13,M26,M37,M17,M38,M22,M39)</f>
@@ -2010,27 +2010,27 @@
       </c>
       <c r="C46" s="1">
         <f>100*C43/$M$43</f>
-        <v>98.71</v>
+        <v>98.81</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" ref="D46:K46" si="14">100*D43/$M$43</f>
-        <v>92.97</v>
+        <v>93.27</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="14"/>
-        <v>81.31</v>
+        <v>80.91</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="14"/>
-        <v>88.01</v>
+        <v>87.51</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="14"/>
-        <v>88.57</v>
+        <v>88.369999999999976</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="14"/>
-        <v>96.750000000000014</v>
+        <v>97.050000000000011</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="14"/>
@@ -2038,25 +2038,52 @@
       </c>
       <c r="J46" s="1">
         <f t="shared" si="14"/>
-        <v>95.57</v>
+        <v>95.07</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="14"/>
-        <v>97.07</v>
+        <v>96.57</v>
       </c>
       <c r="L46" s="1"/>
       <c r="O46" s="3">
         <f>AVERAGE(C46:K46)</f>
-        <v>92.618888888888875</v>
+        <v>92.463333333333338</v>
       </c>
       <c r="P46" s="3">
         <f>STDEV(C46:K46)</f>
-        <v>5.6158624547892106</v>
+        <v>5.7555017157498991</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
